--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3586.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3586.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3586</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Paul Robert Stirling</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2839</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2841</t>
+          <t>2841</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2868</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2984</t>
+          <t>2984</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3001</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3005</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3124</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3136</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3145</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3151</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3165</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3167</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3172</t>
+          <t>3172</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3173</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3179</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3180</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3181</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1765,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1804,7 +1869,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3256</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1856,7 +1921,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1908,7 +1973,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3268</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1960,7 +2025,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3271</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2012,7 +2077,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3292</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2064,7 +2129,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2116,7 +2181,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2168,7 +2233,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2220,7 +2285,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3332</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2272,7 +2337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3378</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2324,7 +2389,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3381</t>
+          <t>3381</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2376,7 +2441,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3416</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2428,7 +2493,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2480,7 +2545,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2532,7 +2597,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2584,7 +2649,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3526</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2636,7 +2701,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3528</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2688,7 +2753,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2740,7 +2805,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2792,7 +2857,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2844,7 +2909,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2896,7 +2961,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2948,7 +3013,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3000,7 +3065,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3052,7 +3117,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3092,7 +3157,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -3100,7 +3164,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3152,7 +3216,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3204,7 +3268,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3763</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3256,7 +3320,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3308,7 +3372,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3360,7 +3424,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3412,7 +3476,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3464,7 +3528,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3516,7 +3580,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3568,7 +3632,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3620,7 +3684,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3672,7 +3736,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3724,7 +3788,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3776,7 +3840,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3828,7 +3892,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3880,7 +3944,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3932,7 +3996,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3984,7 +4048,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4036,7 +4100,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4088,7 +4152,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4140,7 +4204,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4192,7 +4256,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4244,7 +4308,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4296,7 +4360,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4348,7 +4412,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4400,7 +4464,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4452,7 +4516,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4504,7 +4568,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4556,7 +4620,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4608,7 +4672,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4648,7 +4712,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -4656,7 +4719,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4708,7 +4771,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4760,7 +4823,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4812,7 +4875,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4864,7 +4927,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4916,7 +4979,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4968,7 +5031,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5020,7 +5083,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5072,7 +5135,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5124,7 +5187,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5176,7 +5239,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5228,7 +5291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5280,7 +5343,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5332,7 +5395,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5384,7 +5447,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5436,7 +5499,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5488,7 +5551,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5540,7 +5603,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5592,7 +5655,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5644,7 +5707,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5696,7 +5759,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5736,7 +5799,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -5744,7 +5806,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5796,7 +5858,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5848,7 +5910,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5900,7 +5962,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5952,7 +6014,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6004,7 +6066,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6056,7 +6118,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6108,7 +6170,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6160,7 +6222,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6212,7 +6274,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6264,7 +6326,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6316,7 +6378,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6368,7 +6430,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6420,7 +6482,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6472,7 +6534,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6524,7 +6586,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6576,7 +6638,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6628,7 +6690,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6680,7 +6742,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6732,7 +6794,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6784,7 +6846,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6836,7 +6898,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6888,7 +6950,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6940,7 +7002,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6992,7 +7054,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7044,7 +7106,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7096,7 +7158,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7148,7 +7210,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7200,7 +7262,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7252,7 +7314,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7304,7 +7366,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7356,7 +7418,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7408,7 +7470,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7460,7 +7522,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7512,7 +7574,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7564,7 +7626,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7616,7 +7678,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7668,7 +7730,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7720,7 +7782,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7772,7 +7834,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7812,7 +7874,6 @@
           <t>142</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -7820,7 +7881,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4696</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7872,7 +7933,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7912,7 +7973,6 @@
           <t>144</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -7920,7 +7980,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7972,7 +8032,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8011,7 +8071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8033,7 +8093,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8070,7 +8130,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8107,7 +8167,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3124</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8144,7 +8204,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8181,7 +8241,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3145</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8218,7 +8278,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3151</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8255,7 +8315,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3154</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8292,7 +8352,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8329,7 +8389,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8366,7 +8426,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3165</t>
+          <t>3165</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8403,7 +8463,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3179</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8440,7 +8500,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3180</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -8477,7 +8537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3181</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8514,7 +8574,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8551,7 +8611,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8588,7 +8648,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3256</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8625,7 +8685,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8662,7 +8722,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3268</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8699,7 +8759,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3271</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8736,7 +8796,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8773,7 +8833,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8810,7 +8870,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8847,7 +8907,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3332</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8884,7 +8944,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3378</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8921,7 +8981,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3381</t>
+          <t>3381</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -8958,7 +9018,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8995,7 +9055,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9032,7 +9092,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -9069,7 +9129,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3526</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -9106,7 +9166,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3528</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -9143,7 +9203,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -9180,7 +9240,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -9217,7 +9277,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -9254,7 +9314,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -9291,7 +9351,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -9328,7 +9388,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -9365,7 +9425,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -9402,7 +9462,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -9439,7 +9499,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -9476,7 +9536,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3763</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -9513,7 +9573,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -9550,7 +9610,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -9587,7 +9647,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9624,7 +9684,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9661,7 +9721,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9698,7 +9758,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9735,7 +9795,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9772,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9809,7 +9869,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9846,7 +9906,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9883,7 +9943,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9920,7 +9980,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9957,7 +10017,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9994,7 +10054,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10031,7 +10091,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10068,7 +10128,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10105,7 +10165,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10142,7 +10202,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10179,7 +10239,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10216,7 +10276,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -10253,7 +10313,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -10290,7 +10350,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -10327,7 +10387,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -10364,7 +10424,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -10401,7 +10461,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -10438,7 +10498,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -10475,7 +10535,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10512,7 +10572,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10549,7 +10609,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -10586,7 +10646,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -10623,7 +10683,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10660,7 +10720,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -10697,7 +10757,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -10734,7 +10794,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -10771,7 +10831,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -10808,7 +10868,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -10845,7 +10905,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -10871,6 +10931,541 @@
       <c r="G77" t="inlineStr">
         <is>
           <t>0/16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35.57%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.91%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.07%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.31%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14.04%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.44%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.43%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15.31%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.93%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3586.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3586.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11081,10 +11082,6 @@
           <t>4474</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11127,10 +11124,6 @@
           <t>4478</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11173,10 +11166,6 @@
           <t>4494</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11249,225 +11238,508 @@
           <t>4522</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.43%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15.31%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.93%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4107</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4143</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4150</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+          <t>4156</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.67%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>33.43%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15.31%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4696</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4343</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3586.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3586.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3158,6 +3156,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -4713,6 +4712,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5800,6 +5800,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -5812,7 +5813,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7875,6 +7876,7 @@
           <t>142</t>
         </is>
       </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -7887,7 +7889,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7974,6 +7976,7 @@
           <t>144</t>
         </is>
       </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -7986,7 +7989,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -10938,810 +10941,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>35.57%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>32.91%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.07%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.31%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>14.04%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>36.44%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>12.50%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.67%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>33.43%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15.31%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4696</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4009</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4010</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4021</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4025</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4026</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4092</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4093</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4097</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4107</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4143</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4150</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4156</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4257</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4343</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>